--- a/table_6.xlsx
+++ b/table_6.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,304 +424,186 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Configurations</t>
+          <t>Team</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Conf1</t>
+          <t>mAP</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Conf2 Conf3</t>
+          <t>Contextual model</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Conf4</t>
+          <t>Bounding box regression</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t># of Streaming Multiprocessors (SM)</t>
+          <t>Trimps-Soushen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28 56</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>?</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Warp size</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Berkeley Vision</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>34.5%</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SIMD Pipeline Width</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>UvA-Euvision</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35.4%</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t># of Threads/Core</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>CUHK DeepID-Net2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>37.7%</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1,024</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t># of CTAs/Core</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>GoogLeNet</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>38.02%</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t># of Registers/Core</t>
+          <t>Deep Insight</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16,384</t>
+          <t>40.2%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16,384 32,768</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>32,768</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Shared Memory/Core (KB)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>16 (16</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>banks, 1 access/cycle/ bank)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Constant Cache Size/Core Texture Cache Size/Core</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8KB (2-way set assoc, 64 lines) 64KB (2-way set assoc, 64 lines)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t># of Memory Channels</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8 8</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L1 Data Cache L2 Cache</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>128 KB</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>128 KB 256 KB</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>256 KB</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bandwidth Per Memory Module DRAM Request Queue Capacity</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8 (Bytes/Cycle) 32</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Memory Controller</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FR-FCFS</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Branch Divergence Method Warp Schedule Policy</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Immediate Post Dominator Round Robin among read warps</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A8"/>
+  <mergeCells count="28">
     <mergeCell ref="D4"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="D12"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
     <mergeCell ref="C7"/>
-    <mergeCell ref="D8"/>
     <mergeCell ref="B6"/>
-    <mergeCell ref="A10"/>
     <mergeCell ref="B5"/>
-    <mergeCell ref="A13"/>
-    <mergeCell ref="D14"/>
     <mergeCell ref="D5"/>
-    <mergeCell ref="C13"/>
     <mergeCell ref="B4"/>
-    <mergeCell ref="A9"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="A15"/>
     <mergeCell ref="B7"/>
     <mergeCell ref="D1"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="C6"/>
-    <mergeCell ref="D10"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="C14"/>
-    <mergeCell ref="A11"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
     <mergeCell ref="A6"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="B12"/>
     <mergeCell ref="A7"/>
     <mergeCell ref="D6"/>
     <mergeCell ref="C1"/>
-    <mergeCell ref="B11"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="C10"/>
     <mergeCell ref="D2"/>
-    <mergeCell ref="D13"/>
-    <mergeCell ref="B14"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="B8"/>
-    <mergeCell ref="B13"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="C12"/>
     <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="C11"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="A14"/>
     <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_6.xlsx
+++ b/table_6.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,321 +424,129 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Features</t>
+          <t>Codec</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Batch
-Tuning</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Multi
-Model</t>
+          <t>Full Decoding (FPS) NVDEC libavcodec</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>GPU
-Scaling</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Temporal Schedule</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Spatial Schedule</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Interference Prediction</t>
+          <t>Partial Decoding (FPS)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Clipper [15]</t>
+          <t>VP8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>:selected:</t>
+          <t>1,590</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>:selected:</t>
+          <t>1,802</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>✗
-:selected:</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>✗
-:selected:</t>
+          <t>32,774</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MArk [45]</t>
+          <t>H.264</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>:selected:</t>
+          <t>1,431</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>✗
-:selected:</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>✗
-:selected:</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✗</t>
+          <t>1,230</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16,761</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INFaaS [36]</t>
+          <t>VP9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>:selected:</t>
+          <t>3,249</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>:selected:</t>
+          <t>1,179</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>V
-:selected:</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>✗
-:selected:</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>✗
-:selected:</t>
+          <t>35,349</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nexus [38]</t>
+          <t>H.265</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V
-:selected:</t>
+          <t>3,888</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>:selected:</t>
+          <t>2,026</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>✗
-:selected:</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>✗
-:selected:</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GSLICE [17]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>V
-:selected:</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>✗
-:selected:</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>✗
-:selected:</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Gpulet</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>:selected:</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>:selected:</t>
+          <t>25,862</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="19">
     <mergeCell ref="D4"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="G1"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="D5"/>
-    <mergeCell ref="F1"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="B7"/>
     <mergeCell ref="D1"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="G2"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="F6"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="F7"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="A7"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="G7"/>
     <mergeCell ref="D2"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="F2"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="E6"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
     <mergeCell ref="A5"/>
-    <mergeCell ref="G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_6.xlsx
+++ b/table_6.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,125 +424,160 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Codec</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Full Decoding (FPS) NVDEC libavcodec</t>
+          <t>Group
+&lt;1GB</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Composition by Memory
+1GB - 2GB</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Partial Decoding (FPS)</t>
+          <t>Footprint
+&gt;2GB</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VP8</t>
+          <t>scen1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,590</t>
+          <t>mob,be</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,802</t>
+          <t>nas,goo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32,774</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>H.264</t>
+          <t>scen2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,431</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,230</t>
+          <t>den</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16,761</t>
+          <t>vgg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VP9</t>
+          <t>scen3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3,249</t>
+          <t>mob</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,179</t>
+          <t>res</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35,349</t>
+          <t>vgg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>H.265</t>
+          <t>scen4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3,888</t>
+          <t>ssd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2,026</t>
+          <t>nas,den</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25,862</t>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>scen5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>le</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ssd,nas</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>vgg</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
     <mergeCell ref="D4"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
+    <mergeCell ref="B6"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
     <mergeCell ref="D1"/>
+    <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
-    <mergeCell ref="B1:C1"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
+    <mergeCell ref="A6"/>
     <mergeCell ref="C4"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="D2"/>
+    <mergeCell ref="B1"/>
     <mergeCell ref="A3"/>
     <mergeCell ref="A2"/>
     <mergeCell ref="C2"/>
